--- a/apartmentManage/Data/notification.xlsx
+++ b/apartmentManage/Data/notification.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>Cư dân</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>acc</t>
-  </si>
-  <si>
-    <t>02/05/2025</t>
   </si>
 </sst>
 </file>
@@ -125,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -347,29 +338,6 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/apartmentManage/Data/notification.xlsx
+++ b/apartmentManage/Data/notification.xlsx
@@ -6,47 +6,44 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Notifications" r:id="rId3" sheetId="1"/>
+    <sheet name="New Sheet" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Người Nhận</t>
-  </si>
-  <si>
-    <t>Tiêu Đề</t>
-  </si>
-  <si>
-    <t>Nội Dung</t>
-  </si>
-  <si>
-    <t>Loại</t>
-  </si>
-  <si>
-    <t>Ngày Gửi</t>
-  </si>
-  <si>
-    <t>Trạng Thái</t>
+    <t>Đối tượng nhận</t>
+  </si>
+  <si>
+    <t>Kiểu thông báo</t>
+  </si>
+  <si>
+    <t>Tiêu đề</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Ngày gửi</t>
   </si>
   <si>
     <t>Nhân viên</t>
   </si>
   <si>
+    <t>Chung</t>
+  </si>
+  <si>
     <t>Cắt điện định kỳ</t>
   </si>
   <si>
     <t>Thông báo cắt điện từ 8h đến 12h ngày 5/5 do bảo trì hệ thống điện.</t>
   </si>
   <si>
-    <t>Chung</t>
-  </si>
-  <si>
     <t>01/05/2025</t>
   </si>
   <si>
@@ -56,13 +53,13 @@
     <t>Cư dân vui lòng tham gia diễn tập PCCC lúc 15h ngày 7/5 tại sảnh A.</t>
   </si>
   <si>
+    <t>Khẩn cấp</t>
+  </si>
+  <si>
     <t>Sự cố mất nước khẩn cấp</t>
   </si>
   <si>
     <t>Do sự cố ống nước vỡ, khu B sẽ mất nước từ 1h đến 6h sáng ngày 2/5.</t>
-  </si>
-  <si>
-    <t>Khẩn cấp</t>
   </si>
   <si>
     <t>Phun thuốc diệt muỗi</t>
@@ -116,19 +113,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="2.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.98046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.5703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.1171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.54296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.98046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="80.5703125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.65625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.40625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -150,31 +146,25 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>0.0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -182,22 +172,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="F3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>0.0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -205,22 +192,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>0.0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -228,22 +212,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="F5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>0.0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -251,22 +232,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="F6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>0.0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -274,22 +252,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="F7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>0.0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -297,22 +272,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="E8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="F8" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>0.0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -320,22 +292,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="F9" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>0.0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
